--- a/99-exceldmd/Governance App Model_RUN.xlsx
+++ b/99-exceldmd/Governance App Model_RUN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\sunilkumartr\customer-seed-run\Retail\99-exceldmd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\abc  v.0.4\Retail\99-exceldmd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" tabRatio="500" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="REF DATA" sheetId="10" r:id="rId1"/>
@@ -37,8 +37,8 @@
   </definedNames>
   <calcPr calcId="152511" iterateDelta="1E-4" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" mergeInterval="0" personalView="1" windowWidth="1472" windowHeight="548" tabRatio="500" activeSheetId="4"/>
     <customWorkbookView name="Gupta, Kunal - Personal View" guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" tabRatio="500" activeSheetId="4"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" mergeInterval="0" personalView="1" windowWidth="1472" windowHeight="548" tabRatio="500" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
   <si>
     <t>ACTION</t>
   </si>
@@ -81,9 +81,6 @@
     <t>DISPLAY MODEL</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -150,39 +147,15 @@
     <t>DEFINITION</t>
   </si>
   <si>
-    <t>Draft</t>
-  </si>
-  <si>
-    <t>Deleted</t>
-  </si>
-  <si>
-    <t>Published</t>
-  </si>
-  <si>
     <t>BOOLEAN</t>
   </si>
   <si>
-    <t>Sync</t>
-  </si>
-  <si>
-    <t>Async</t>
-  </si>
-  <si>
-    <t>ANY</t>
-  </si>
-  <si>
     <t>RULEMODE</t>
   </si>
   <si>
     <t>CONDITIONMODE</t>
   </si>
   <si>
-    <t>Computation</t>
-  </si>
-  <si>
-    <t>Validation</t>
-  </si>
-  <si>
     <t>IMPACTED ROLES</t>
   </si>
   <si>
@@ -234,9 +207,6 @@
     <t>WORKFLOW ACTIVITY CRITERIA</t>
   </si>
   <si>
-    <t>Any</t>
-  </si>
-  <si>
     <t>EXECUTIONMODE</t>
   </si>
   <si>
@@ -277,12 +247,45 @@
   </si>
   <si>
     <t>product</t>
+  </si>
+  <si>
+    <t>computation</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>published</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>deleted</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>aNY</t>
+  </si>
+  <si>
+    <t>async</t>
+  </si>
+  <si>
+    <t>sync</t>
+  </si>
+  <si>
+    <t>validation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
   </numFmts>
@@ -1150,7 +1153,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1160,55 +1163,55 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1241,32 +1244,32 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}">
+      <selection activeCell="A5" sqref="A5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}">
       <selection activeCell="B34" sqref="B34"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}">
-      <selection activeCell="A5" sqref="A5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -1294,13 +1297,13 @@
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>3</v>
@@ -1311,41 +1314,41 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="7">
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>6</v>
@@ -1354,10 +1357,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1369,10 +1372,10 @@
         <v>4</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1384,10 +1387,10 @@
         <v>5</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -1402,7 +1405,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -1410,11 +1413,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -1429,9 +1432,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1455,64 +1458,64 @@
         <v>1</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="G1" s="28" t="s">
         <v>31</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>32</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I2"/>
   <customSheetViews>
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="150">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="150">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="150">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -1583,31 +1586,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2612,9 +2615,9 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1" topLeftCell="E1">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G109" sqref="G109"/>
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B322" sqref="B322"/>
       <colBreaks count="1" manualBreakCount="1">
         <brk id="2" max="1048575" man="1"/>
       </colBreaks>
@@ -2622,9 +2625,9 @@
       <pageSetup orientation="portrait" r:id="rId1"/>
       <autoFilter ref="A1:AE347"/>
     </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B322" sqref="B322"/>
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1" topLeftCell="E1">
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G109" sqref="G109"/>
       <colBreaks count="1" manualBreakCount="1">
         <brk id="2" max="1048575" man="1"/>
       </colBreaks>
@@ -2678,9 +2681,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2704,75 +2707,75 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>30</v>
-      </c>
       <c r="F1" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>56</v>
-      </c>
       <c r="K1" s="26" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C2" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>71</v>
-      </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J2" s="25">
         <v>100</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="107">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="107">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="107">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -2820,31 +2823,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2852,12 +2855,12 @@
     <sortCondition ref="B2"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2894,35 +2897,29 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D243" sqref="D243"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AA594"/>
-    </customSheetView>
     <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="130" filter="1" showAutoFilter="1" hiddenRows="1">
       <selection activeCell="E10" sqref="E10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2933,6 +2930,12 @@
           </filters>
         </filterColumn>
       </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D243" sqref="D243"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:AA594"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="B1 D1 F1 H1">
@@ -2946,6 +2949,77 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="0fff5a07-2326-481b-a4e9-87ff7a79f8dd">Z7QZ4QWJDNQ7-73874190-24</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="0fff5a07-2326-481b-a4e9-87ff7a79f8dd">
+      <Url>https://jcp.sharepoint.com/sites/SPOProjects/JCPDotcomPortfolio/AssortmentExpansion/_layouts/15/DocIdRedir.aspx?ID=Z7QZ4QWJDNQ7-73874190-24</Url>
+      <Description>Z7QZ4QWJDNQ7-73874190-24</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003CF273DB610BE64D8338C714685CCF46" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2352d1590348b4df6d1de565ccbd102a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0fff5a07-2326-481b-a4e9-87ff7a79f8dd" xmlns:ns3="2e2046eb-f52d-433a-aad8-97c651e3992c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5c0a0cba47b5c64de8255dd546e4ec9" ns2:_="" ns3:_="">
     <xsd:import namespace="0fff5a07-2326-481b-a4e9-87ff7a79f8dd"/>
@@ -3123,78 +3197,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="0fff5a07-2326-481b-a4e9-87ff7a79f8dd">Z7QZ4QWJDNQ7-73874190-24</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="0fff5a07-2326-481b-a4e9-87ff7a79f8dd">
-      <Url>https://jcp.sharepoint.com/sites/SPOProjects/JCPDotcomPortfolio/AssortmentExpansion/_layouts/15/DocIdRedir.aspx?ID=Z7QZ4QWJDNQ7-73874190-24</Url>
-      <Description>Z7QZ4QWJDNQ7-73874190-24</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A58437D0-211E-4689-9BB7-1D7150BF8997}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{544FA98A-5D89-41A3-B3E3-9D6D7A4BCA0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E9ADEF4-6C25-4BA4-9EDB-E28F722B8411}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="2e2046eb-f52d-433a-aad8-97c651e3992c"/>
+    <ds:schemaRef ds:uri="0fff5a07-2326-481b-a4e9-87ff7a79f8dd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CAC4C16-FDF5-437E-A8C4-D650CA39502E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3211,37 +3247,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E9ADEF4-6C25-4BA4-9EDB-E28F722B8411}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="2e2046eb-f52d-433a-aad8-97c651e3992c"/>
-    <ds:schemaRef ds:uri="0fff5a07-2326-481b-a4e9-87ff7a79f8dd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{544FA98A-5D89-41A3-B3E3-9D6D7A4BCA0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A58437D0-211E-4689-9BB7-1D7150BF8997}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/99-exceldmd/Governance App Model_RUN.xlsx
+++ b/99-exceldmd/Governance App Model_RUN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" tabRatio="500" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="REF DATA" sheetId="10" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
   <si>
     <t>ACTION</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>validation</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1437,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1490,7 +1493,7 @@
         <v>67</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>69</v>
@@ -2683,7 +2686,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2748,7 +2751,7 @@
         <v>67</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>69</v>
@@ -2763,7 +2766,7 @@
         <v>100</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
